--- a/public/import/Departamento.xlsx
+++ b/public/import/Departamento.xlsx
@@ -1,193 +1,188 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\smasys\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E0BF718-8F45-454A-8D56-EA3F2C17D9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BFC5FEA-07DF-41BE-8BC5-CB595BDA2930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{147EB1B9-484D-42EE-9ABC-AE5636CC31FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Departamento" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>AMAZONAS</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>ANCASH</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>APURIMAC</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>AREQUIPA</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>AYACUCHO</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>CAJAMARCA</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>CALLAO</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>CUSCO</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>HUANCAVELICA</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>HUANUCO</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>ICA</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>JUNIN</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>LA LIBERTAD</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>LAMBAYEQUE</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>LORETO</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>MADRE DE DIOS</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>MOQUEGUA</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>PASCO</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>PIURA</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>PUNO</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>SAN MARTIN</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>TACNA</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>TUMBES</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>UCAYALI</t>
+  </si>
+  <si>
     <t>Codigo</t>
   </si>
   <si>
     <t>Nombre</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>AMAZONAS</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>ANCASH</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>APURIMAC</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>AREQUIPA</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>AYACUCHO</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>CAJAMARCA</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>PROV. CONST. DEL CALLAO</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>CUSCO</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>HUANCAVELICA</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>HUANUCO</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>ICA</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>JUNIN</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>LA LIBERTAD</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>LAMBAYEQUE</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>LIMA</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>LORETO</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>MADRE DE DIOS</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>MOQUEGUA</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>PASCO</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>PIURA</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>PUNO</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>SAN MARTIN</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>TACNA</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>TUMBES</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>UCAYALI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,12 +197,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,17 +230,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,228 +546,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750D1CA0-BE03-4949-A042-03DED62723BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
 </worksheet>
 </file>